--- a/data/924/NBS/Total Retail Sales of Consumer Goods by Operates.xlsx
+++ b/data/924/NBS/Total Retail Sales of Consumer Goods by Operates.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RC9"/>
+  <dimension ref="A1:RD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,2350 +374,2355 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar 2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Feb 2022</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Jan 2022</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Dec 2021</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov 2021</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Oct 2021</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Sep 2021</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Aug 2021</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Jul 2021</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Jun 2021</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>May 2021</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Apr 2021</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Mar 2021</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Feb 2021</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Jan 2021</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Dec 2020</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Nov 2020</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Oct 2020</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Sep 2020</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Aug 2020</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Jul 2020</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>June 2020</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>May 2020</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Apr 2020</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Mar 2020</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Feb 2020</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Jan 2020</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Dec 2019</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Nov 2019</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Oct 2019</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Sep 2019</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Aug 2019</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Jul 2019</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Jun 2019</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>May 2019</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Apr 2019</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Mar 2019</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Feb 2019</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Jan 2019</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Dec 2018</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Nov 2018</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Oct 2018</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Sep 2018</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Aug 2018</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Jul 2018</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Jun 2018</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>May 2018</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Apr 2018</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Mar 2018</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Feb 2018</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2018</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Dec 2017</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Nov 2017</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Oct 2017</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Sep 2017</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Aug 2017</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Jul 2017</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Jun 2017</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>May 2017</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Apr 2017</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Mar 2017</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Feb 2017</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Jan 2017</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Dec 2016</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Nov 2016</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Oct 2016</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Sep 2016</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Aug 2016</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Jul 2016</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>Jun 2016</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>May 2016</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Apr 2016</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Mar 2016</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>Feb 2016</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>Jan 2016</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>Dec 2015</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>Nov 2015</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>Oct 2015</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>Sep 2015</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>Aug 2015</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>Jul 2015</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>Jun 2015</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>May 2015</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>Apr 2015</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>Mar 2015</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>Feb 2015</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2015</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>Dec 2014</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>Nov 2014</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>Oct 2014</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>Sep 2014</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>Aug 2014</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>Jul 2014</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>Jun 2014</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>May 2014</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>Apr 2014</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>Mar 2014</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>Feb 2014</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>Jan 2014</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>Dec 2013</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>Nov 2013</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>Oct 2013</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>Sep 2013</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>Aug 2013</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>Jul 2013</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>Jun 2013</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>May 2013</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>Apr 2013</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>Mar 2013</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>Feb 2013</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>Jan 2013</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>Dec 2012</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>Nov 2012</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>Oct2012</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>Sep 2012</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>Aug 2012</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>Jul 2012</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>Jun2012</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>May 2012</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>Apr 2012</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>Mar 2012</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>Feb 2012</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>Jan 2012</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>Dec 2011</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>Nov 2011</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>Oct 2011</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>Sep 2011</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>Aug 2011</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>Jul 2011</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>Jun 2011</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>May 2011</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>Apr 2011</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>Mar 2011</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>Feb 2011</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>Jan 2011</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>Dec 2010</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>Nov 2010</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>Oct 2010</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>Sep 2010</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>Aug 2010</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>Jul 2010</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>Jun 2010</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>May 2010</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>Apr 2010</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>Mar 2010</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>Feb 2010</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>Jan 2010</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>Dec 2009</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>Nov 2009</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>Oct 2009</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>Sep 2009</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>Aug 2009</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>Jul 2009</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>Jun 2009</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>May 2009</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>Apr 2009</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>Mar 2009</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>Feb 2009</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>Jan 2009</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>Dec 2008</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>Nov 2008</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>Oct 2008</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>Sep 2008</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>Aug 2008</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>Jul 2008</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>Jun 2008</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>May 2008</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>Apr 2008</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>Mar 2008</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>Feb 2008</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>Jan 2008</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>Dec 2007</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>Nov 2007</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>Oct 2007</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>Sep 2007</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>Aug 2007</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>Jul 2007</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>Jun 2007</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>May 2007</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>Apr 2007</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>Mar 2007</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>Feb 2007</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>Jan 2007</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>Dec 2006</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>Nov 2006</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>Oct 2006</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>Sep 2006</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>Aug 2006</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>Jul 2006</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>Jun 2006</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>May 2006</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>Apr 2006</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>Mar 2006</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>Feb 2006</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>Jan 2006</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>Dec 2005</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>Nov 2005</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>Oct 2005</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>Sep 2005</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>Aug 2005</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>Jul 2005</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>Jun 2005</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>May 2005</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>Apr 2005</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>Mar 2005</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>Feb 2005</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2005</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>Dec 2004</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>Nov 2004</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>Oct 2004</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>Sep 2004</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>Aug 2004</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>Jul 2004</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>Jun 2004</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>May 2004</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>Apr 2004</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>Mar 2004</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>Feb 2004</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>Jan 2004</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>Dec 2003</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>Nov 2003</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>Oct 2003</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>Sep 2003</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>Aug 2003</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>Jul 2003</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>Jun 2003</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>May 2003</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>Apr 2003</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>Mar 2003</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>Feb 2003</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>Jan 2003</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>Dec 2002</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>Nov 2002</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>Oct 2002</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>Sep 2002</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>Aug 2002</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>Jul 2002</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>Jun 2002</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>May 2002</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>Apr 2002</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>Mar 2002</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>Feb 2002</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2002</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>Dec 2001</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>Nov 2001</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>Oct 2001</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>Sep 2001</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>Aug 2001</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>Jul 2001</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>Jun 2001</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>May 2001</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>Apr 2001</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>Mar 2001</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>Feb 2001</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>Jan 2001</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>Dec 2000</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>Nov 2000</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>Oct 2000</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>Sep 2000</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>Aug 2000</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>Jul 2000</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>Jun 2000</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>May 2000</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>Apr 2000</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>Mar 2000</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>Feb 2000</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>Jan 2000</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>Dec 1999</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>Nov 1999</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>Oct 1999</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>Sep 1999</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>Aug 1999</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>Jul 1999</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>Jun 1999</t>
         </is>
       </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>May 1999</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>Apr 1999</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>Mar 1999</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>Feb 1999</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>Jan 1999</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>Dec 1998</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>Nov 1998</t>
         </is>
       </c>
-      <c r="JV1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
         <is>
           <t>Oct 1998</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>Sep 1998</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>Aug 1998</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
         <is>
           <t>Jul 1998</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>Jun 1998</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
         <is>
           <t>May 1998</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
+      <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>Apr 1998</t>
         </is>
       </c>
-      <c r="KC1" s="1" t="inlineStr">
+      <c r="KD1" s="1" t="inlineStr">
         <is>
           <t>Mar 1998</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>Feb 1998</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>Jan 1998</t>
         </is>
       </c>
-      <c r="KF1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
         <is>
           <t>Dec 1997</t>
         </is>
       </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>Nov 1997</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
+      <c r="KI1" s="1" t="inlineStr">
         <is>
           <t>Oct 1997</t>
         </is>
       </c>
-      <c r="KI1" s="1" t="inlineStr">
+      <c r="KJ1" s="1" t="inlineStr">
         <is>
           <t>Sep 1997</t>
         </is>
       </c>
-      <c r="KJ1" s="1" t="inlineStr">
+      <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>Aug 1997</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
+      <c r="KL1" s="1" t="inlineStr">
         <is>
           <t>Jul 1997</t>
         </is>
       </c>
-      <c r="KL1" s="1" t="inlineStr">
+      <c r="KM1" s="1" t="inlineStr">
         <is>
           <t>Jun 1997</t>
         </is>
       </c>
-      <c r="KM1" s="1" t="inlineStr">
+      <c r="KN1" s="1" t="inlineStr">
         <is>
           <t>May 1997</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>Apr 1997</t>
         </is>
       </c>
-      <c r="KO1" s="1" t="inlineStr">
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>Mar 1997</t>
         </is>
       </c>
-      <c r="KP1" s="1" t="inlineStr">
+      <c r="KQ1" s="1" t="inlineStr">
         <is>
           <t>Feb 1997</t>
         </is>
       </c>
-      <c r="KQ1" s="1" t="inlineStr">
+      <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>Jan 1997</t>
         </is>
       </c>
-      <c r="KR1" s="1" t="inlineStr">
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>Dec 1996</t>
         </is>
       </c>
-      <c r="KS1" s="1" t="inlineStr">
+      <c r="KT1" s="1" t="inlineStr">
         <is>
           <t>Nov 1996</t>
         </is>
       </c>
-      <c r="KT1" s="1" t="inlineStr">
+      <c r="KU1" s="1" t="inlineStr">
         <is>
           <t>Oct 1996</t>
         </is>
       </c>
-      <c r="KU1" s="1" t="inlineStr">
+      <c r="KV1" s="1" t="inlineStr">
         <is>
           <t>Sep 1996</t>
         </is>
       </c>
-      <c r="KV1" s="1" t="inlineStr">
+      <c r="KW1" s="1" t="inlineStr">
         <is>
           <t>Aug 1996</t>
         </is>
       </c>
-      <c r="KW1" s="1" t="inlineStr">
+      <c r="KX1" s="1" t="inlineStr">
         <is>
           <t>Jul 1996</t>
         </is>
       </c>
-      <c r="KX1" s="1" t="inlineStr">
+      <c r="KY1" s="1" t="inlineStr">
         <is>
           <t>Jun 1996</t>
         </is>
       </c>
-      <c r="KY1" s="1" t="inlineStr">
+      <c r="KZ1" s="1" t="inlineStr">
         <is>
           <t>May 1996</t>
         </is>
       </c>
-      <c r="KZ1" s="1" t="inlineStr">
+      <c r="LA1" s="1" t="inlineStr">
         <is>
           <t>Apr 1996</t>
         </is>
       </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="LB1" s="1" t="inlineStr">
         <is>
           <t>Mar 1996</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
+      <c r="LC1" s="1" t="inlineStr">
         <is>
           <t>Feb 1996</t>
         </is>
       </c>
-      <c r="LC1" s="1" t="inlineStr">
+      <c r="LD1" s="1" t="inlineStr">
         <is>
           <t>Jan 1996</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
+      <c r="LE1" s="1" t="inlineStr">
         <is>
           <t>Dec 1995</t>
         </is>
       </c>
-      <c r="LE1" s="1" t="inlineStr">
+      <c r="LF1" s="1" t="inlineStr">
         <is>
           <t>Nov 1995</t>
         </is>
       </c>
-      <c r="LF1" s="1" t="inlineStr">
+      <c r="LG1" s="1" t="inlineStr">
         <is>
           <t>Oct 1995</t>
         </is>
       </c>
-      <c r="LG1" s="1" t="inlineStr">
+      <c r="LH1" s="1" t="inlineStr">
         <is>
           <t>Sep 1995</t>
         </is>
       </c>
-      <c r="LH1" s="1" t="inlineStr">
+      <c r="LI1" s="1" t="inlineStr">
         <is>
           <t>Aug 1995</t>
         </is>
       </c>
-      <c r="LI1" s="1" t="inlineStr">
+      <c r="LJ1" s="1" t="inlineStr">
         <is>
           <t>Jul 1995</t>
         </is>
       </c>
-      <c r="LJ1" s="1" t="inlineStr">
+      <c r="LK1" s="1" t="inlineStr">
         <is>
           <t>Jun 1995</t>
         </is>
       </c>
-      <c r="LK1" s="1" t="inlineStr">
+      <c r="LL1" s="1" t="inlineStr">
         <is>
           <t>May 1995</t>
         </is>
       </c>
-      <c r="LL1" s="1" t="inlineStr">
+      <c r="LM1" s="1" t="inlineStr">
         <is>
           <t>Apr 1995</t>
         </is>
       </c>
-      <c r="LM1" s="1" t="inlineStr">
+      <c r="LN1" s="1" t="inlineStr">
         <is>
           <t>Mar 1995</t>
         </is>
       </c>
-      <c r="LN1" s="1" t="inlineStr">
+      <c r="LO1" s="1" t="inlineStr">
         <is>
           <t>Feb 1995</t>
         </is>
       </c>
-      <c r="LO1" s="1" t="inlineStr">
+      <c r="LP1" s="1" t="inlineStr">
         <is>
           <t>Jan 1995</t>
         </is>
       </c>
-      <c r="LP1" s="1" t="inlineStr">
+      <c r="LQ1" s="1" t="inlineStr">
         <is>
           <t>Dec 1994</t>
         </is>
       </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="LR1" s="1" t="inlineStr">
         <is>
           <t>Nov 1994</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
+      <c r="LS1" s="1" t="inlineStr">
         <is>
           <t>Oct 1994</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
+      <c r="LT1" s="1" t="inlineStr">
         <is>
           <t>Sep 1994</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
         <is>
           <t>Aug 1994</t>
         </is>
       </c>
-      <c r="LU1" s="1" t="inlineStr">
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>Jul 1994</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
         <is>
           <t>Jun 1994</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="LX1" s="1" t="inlineStr">
         <is>
           <t>May 1994</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="LY1" s="1" t="inlineStr">
         <is>
           <t>Apr 1994</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="LZ1" s="1" t="inlineStr">
         <is>
           <t>Mar 1994</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="MA1" s="1" t="inlineStr">
         <is>
           <t>Feb 1994</t>
         </is>
       </c>
-      <c r="MA1" s="1" t="inlineStr">
+      <c r="MB1" s="1" t="inlineStr">
         <is>
           <t>Jan 1994</t>
         </is>
       </c>
-      <c r="MB1" s="1" t="inlineStr">
+      <c r="MC1" s="1" t="inlineStr">
         <is>
           <t>Dec 1993</t>
         </is>
       </c>
-      <c r="MC1" s="1" t="inlineStr">
+      <c r="MD1" s="1" t="inlineStr">
         <is>
           <t>Nov 1993</t>
         </is>
       </c>
-      <c r="MD1" s="1" t="inlineStr">
+      <c r="ME1" s="1" t="inlineStr">
         <is>
           <t>Oct 1993</t>
         </is>
       </c>
-      <c r="ME1" s="1" t="inlineStr">
+      <c r="MF1" s="1" t="inlineStr">
         <is>
           <t>Sep 1993</t>
         </is>
       </c>
-      <c r="MF1" s="1" t="inlineStr">
+      <c r="MG1" s="1" t="inlineStr">
         <is>
           <t>Aug 1993</t>
         </is>
       </c>
-      <c r="MG1" s="1" t="inlineStr">
+      <c r="MH1" s="1" t="inlineStr">
         <is>
           <t>Jul 1993</t>
         </is>
       </c>
-      <c r="MH1" s="1" t="inlineStr">
+      <c r="MI1" s="1" t="inlineStr">
         <is>
           <t>Jun 1993</t>
         </is>
       </c>
-      <c r="MI1" s="1" t="inlineStr">
+      <c r="MJ1" s="1" t="inlineStr">
         <is>
           <t>May 1993</t>
         </is>
       </c>
-      <c r="MJ1" s="1" t="inlineStr">
+      <c r="MK1" s="1" t="inlineStr">
         <is>
           <t>Apr 1993</t>
         </is>
       </c>
-      <c r="MK1" s="1" t="inlineStr">
+      <c r="ML1" s="1" t="inlineStr">
         <is>
           <t>Mar 1993</t>
         </is>
       </c>
-      <c r="ML1" s="1" t="inlineStr">
+      <c r="MM1" s="1" t="inlineStr">
         <is>
           <t>Feb 1993</t>
         </is>
       </c>
-      <c r="MM1" s="1" t="inlineStr">
+      <c r="MN1" s="1" t="inlineStr">
         <is>
           <t>Jan 1993</t>
         </is>
       </c>
-      <c r="MN1" s="1" t="inlineStr">
+      <c r="MO1" s="1" t="inlineStr">
         <is>
           <t>Dec 1992</t>
         </is>
       </c>
-      <c r="MO1" s="1" t="inlineStr">
+      <c r="MP1" s="1" t="inlineStr">
         <is>
           <t>Nov 1992</t>
         </is>
       </c>
-      <c r="MP1" s="1" t="inlineStr">
+      <c r="MQ1" s="1" t="inlineStr">
         <is>
           <t>Oct 1992</t>
         </is>
       </c>
-      <c r="MQ1" s="1" t="inlineStr">
+      <c r="MR1" s="1" t="inlineStr">
         <is>
           <t>Sep 1992</t>
         </is>
       </c>
-      <c r="MR1" s="1" t="inlineStr">
+      <c r="MS1" s="1" t="inlineStr">
         <is>
           <t>Aug 1992</t>
         </is>
       </c>
-      <c r="MS1" s="1" t="inlineStr">
+      <c r="MT1" s="1" t="inlineStr">
         <is>
           <t>Jul 1992</t>
         </is>
       </c>
-      <c r="MT1" s="1" t="inlineStr">
+      <c r="MU1" s="1" t="inlineStr">
         <is>
           <t>Jun 1992</t>
         </is>
       </c>
-      <c r="MU1" s="1" t="inlineStr">
+      <c r="MV1" s="1" t="inlineStr">
         <is>
           <t>May 1992</t>
         </is>
       </c>
-      <c r="MV1" s="1" t="inlineStr">
+      <c r="MW1" s="1" t="inlineStr">
         <is>
           <t>Apr 1992</t>
         </is>
       </c>
-      <c r="MW1" s="1" t="inlineStr">
+      <c r="MX1" s="1" t="inlineStr">
         <is>
           <t>Mar 1992</t>
         </is>
       </c>
-      <c r="MX1" s="1" t="inlineStr">
+      <c r="MY1" s="1" t="inlineStr">
         <is>
           <t>Feb 1992</t>
         </is>
       </c>
-      <c r="MY1" s="1" t="inlineStr">
+      <c r="MZ1" s="1" t="inlineStr">
         <is>
           <t>Jan 1992</t>
         </is>
       </c>
-      <c r="MZ1" s="1" t="inlineStr">
+      <c r="NA1" s="1" t="inlineStr">
         <is>
           <t>Dec 1991</t>
         </is>
       </c>
-      <c r="NA1" s="1" t="inlineStr">
+      <c r="NB1" s="1" t="inlineStr">
         <is>
           <t>Nov 1991</t>
         </is>
       </c>
-      <c r="NB1" s="1" t="inlineStr">
+      <c r="NC1" s="1" t="inlineStr">
         <is>
           <t>Oct 1991</t>
         </is>
       </c>
-      <c r="NC1" s="1" t="inlineStr">
+      <c r="ND1" s="1" t="inlineStr">
         <is>
           <t>Sep 1991</t>
         </is>
       </c>
-      <c r="ND1" s="1" t="inlineStr">
+      <c r="NE1" s="1" t="inlineStr">
         <is>
           <t>Aug 1991</t>
         </is>
       </c>
-      <c r="NE1" s="1" t="inlineStr">
+      <c r="NF1" s="1" t="inlineStr">
         <is>
           <t>Jul 1991</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
+      <c r="NG1" s="1" t="inlineStr">
         <is>
           <t>Jun 1991</t>
         </is>
       </c>
-      <c r="NG1" s="1" t="inlineStr">
+      <c r="NH1" s="1" t="inlineStr">
         <is>
           <t>May 1991</t>
         </is>
       </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="NI1" s="1" t="inlineStr">
         <is>
           <t>Apr 1991</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
+      <c r="NJ1" s="1" t="inlineStr">
         <is>
           <t>Mar 1991</t>
         </is>
       </c>
-      <c r="NJ1" s="1" t="inlineStr">
+      <c r="NK1" s="1" t="inlineStr">
         <is>
           <t>Feb 1991</t>
         </is>
       </c>
-      <c r="NK1" s="1" t="inlineStr">
+      <c r="NL1" s="1" t="inlineStr">
         <is>
           <t>Jan 1991</t>
         </is>
       </c>
-      <c r="NL1" s="1" t="inlineStr">
+      <c r="NM1" s="1" t="inlineStr">
         <is>
           <t>Dec 1990</t>
         </is>
       </c>
-      <c r="NM1" s="1" t="inlineStr">
+      <c r="NN1" s="1" t="inlineStr">
         <is>
           <t>Nov 1990</t>
         </is>
       </c>
-      <c r="NN1" s="1" t="inlineStr">
+      <c r="NO1" s="1" t="inlineStr">
         <is>
           <t>Oct 1990</t>
         </is>
       </c>
-      <c r="NO1" s="1" t="inlineStr">
+      <c r="NP1" s="1" t="inlineStr">
         <is>
           <t>Sep 1990</t>
         </is>
       </c>
-      <c r="NP1" s="1" t="inlineStr">
+      <c r="NQ1" s="1" t="inlineStr">
         <is>
           <t>Aug 1990</t>
         </is>
       </c>
-      <c r="NQ1" s="1" t="inlineStr">
+      <c r="NR1" s="1" t="inlineStr">
         <is>
           <t>Jul 1990</t>
         </is>
       </c>
-      <c r="NR1" s="1" t="inlineStr">
+      <c r="NS1" s="1" t="inlineStr">
         <is>
           <t>Jun 1990</t>
         </is>
       </c>
-      <c r="NS1" s="1" t="inlineStr">
+      <c r="NT1" s="1" t="inlineStr">
         <is>
           <t>May 1990</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
+      <c r="NU1" s="1" t="inlineStr">
         <is>
           <t>Apr 1990</t>
         </is>
       </c>
-      <c r="NU1" s="1" t="inlineStr">
+      <c r="NV1" s="1" t="inlineStr">
         <is>
           <t>Mar 1990</t>
         </is>
       </c>
-      <c r="NV1" s="1" t="inlineStr">
+      <c r="NW1" s="1" t="inlineStr">
         <is>
           <t>Feb 1990</t>
         </is>
       </c>
-      <c r="NW1" s="1" t="inlineStr">
+      <c r="NX1" s="1" t="inlineStr">
         <is>
           <t>Jan 1990</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
+      <c r="NY1" s="1" t="inlineStr">
         <is>
           <t>Dec 1989</t>
         </is>
       </c>
-      <c r="NY1" s="1" t="inlineStr">
+      <c r="NZ1" s="1" t="inlineStr">
         <is>
           <t>Nov 1989</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
+      <c r="OA1" s="1" t="inlineStr">
         <is>
           <t>Oct 1989</t>
         </is>
       </c>
-      <c r="OA1" s="1" t="inlineStr">
+      <c r="OB1" s="1" t="inlineStr">
         <is>
           <t>Sep 1989</t>
         </is>
       </c>
-      <c r="OB1" s="1" t="inlineStr">
+      <c r="OC1" s="1" t="inlineStr">
         <is>
           <t>Aug 1989</t>
         </is>
       </c>
-      <c r="OC1" s="1" t="inlineStr">
+      <c r="OD1" s="1" t="inlineStr">
         <is>
           <t>Jul 1989</t>
         </is>
       </c>
-      <c r="OD1" s="1" t="inlineStr">
+      <c r="OE1" s="1" t="inlineStr">
         <is>
           <t>Jun 1989</t>
         </is>
       </c>
-      <c r="OE1" s="1" t="inlineStr">
+      <c r="OF1" s="1" t="inlineStr">
         <is>
           <t>May 1989</t>
         </is>
       </c>
-      <c r="OF1" s="1" t="inlineStr">
+      <c r="OG1" s="1" t="inlineStr">
         <is>
           <t>Apr 1989</t>
         </is>
       </c>
-      <c r="OG1" s="1" t="inlineStr">
+      <c r="OH1" s="1" t="inlineStr">
         <is>
           <t>Mar 1989</t>
         </is>
       </c>
-      <c r="OH1" s="1" t="inlineStr">
+      <c r="OI1" s="1" t="inlineStr">
         <is>
           <t>Feb 1989</t>
         </is>
       </c>
-      <c r="OI1" s="1" t="inlineStr">
+      <c r="OJ1" s="1" t="inlineStr">
         <is>
           <t>Jan 1989</t>
         </is>
       </c>
-      <c r="OJ1" s="1" t="inlineStr">
+      <c r="OK1" s="1" t="inlineStr">
         <is>
           <t>Dec 1988</t>
         </is>
       </c>
-      <c r="OK1" s="1" t="inlineStr">
+      <c r="OL1" s="1" t="inlineStr">
         <is>
           <t>Nov 1988</t>
         </is>
       </c>
-      <c r="OL1" s="1" t="inlineStr">
+      <c r="OM1" s="1" t="inlineStr">
         <is>
           <t>Oct 1988</t>
         </is>
       </c>
-      <c r="OM1" s="1" t="inlineStr">
+      <c r="ON1" s="1" t="inlineStr">
         <is>
           <t>Sep 1988</t>
         </is>
       </c>
-      <c r="ON1" s="1" t="inlineStr">
+      <c r="OO1" s="1" t="inlineStr">
         <is>
           <t>Aug 1988</t>
         </is>
       </c>
-      <c r="OO1" s="1" t="inlineStr">
+      <c r="OP1" s="1" t="inlineStr">
         <is>
           <t>Jul 1988</t>
         </is>
       </c>
-      <c r="OP1" s="1" t="inlineStr">
+      <c r="OQ1" s="1" t="inlineStr">
         <is>
           <t>Jun 1988</t>
         </is>
       </c>
-      <c r="OQ1" s="1" t="inlineStr">
+      <c r="OR1" s="1" t="inlineStr">
         <is>
           <t>May 1988</t>
         </is>
       </c>
-      <c r="OR1" s="1" t="inlineStr">
+      <c r="OS1" s="1" t="inlineStr">
         <is>
           <t>Apr 1988</t>
         </is>
       </c>
-      <c r="OS1" s="1" t="inlineStr">
+      <c r="OT1" s="1" t="inlineStr">
         <is>
           <t>Mar 1988</t>
         </is>
       </c>
-      <c r="OT1" s="1" t="inlineStr">
+      <c r="OU1" s="1" t="inlineStr">
         <is>
           <t>Feb 1988</t>
         </is>
       </c>
-      <c r="OU1" s="1" t="inlineStr">
+      <c r="OV1" s="1" t="inlineStr">
         <is>
           <t>Jan 1988</t>
         </is>
       </c>
-      <c r="OV1" s="1" t="inlineStr">
+      <c r="OW1" s="1" t="inlineStr">
         <is>
           <t>Dec 1987</t>
         </is>
       </c>
-      <c r="OW1" s="1" t="inlineStr">
+      <c r="OX1" s="1" t="inlineStr">
         <is>
           <t>Nov 1987</t>
         </is>
       </c>
-      <c r="OX1" s="1" t="inlineStr">
+      <c r="OY1" s="1" t="inlineStr">
         <is>
           <t>Oct 1987</t>
         </is>
       </c>
-      <c r="OY1" s="1" t="inlineStr">
+      <c r="OZ1" s="1" t="inlineStr">
         <is>
           <t>Sep 1987</t>
         </is>
       </c>
-      <c r="OZ1" s="1" t="inlineStr">
+      <c r="PA1" s="1" t="inlineStr">
         <is>
           <t>Aug 1987</t>
         </is>
       </c>
-      <c r="PA1" s="1" t="inlineStr">
+      <c r="PB1" s="1" t="inlineStr">
         <is>
           <t>Jul 1987</t>
         </is>
       </c>
-      <c r="PB1" s="1" t="inlineStr">
+      <c r="PC1" s="1" t="inlineStr">
         <is>
           <t>Jun 1987</t>
         </is>
       </c>
-      <c r="PC1" s="1" t="inlineStr">
+      <c r="PD1" s="1" t="inlineStr">
         <is>
           <t>May 1987</t>
         </is>
       </c>
-      <c r="PD1" s="1" t="inlineStr">
+      <c r="PE1" s="1" t="inlineStr">
         <is>
           <t>Apr 1987</t>
         </is>
       </c>
-      <c r="PE1" s="1" t="inlineStr">
+      <c r="PF1" s="1" t="inlineStr">
         <is>
           <t>Mar 1987</t>
         </is>
       </c>
-      <c r="PF1" s="1" t="inlineStr">
+      <c r="PG1" s="1" t="inlineStr">
         <is>
           <t>Feb 1987</t>
         </is>
       </c>
-      <c r="PG1" s="1" t="inlineStr">
+      <c r="PH1" s="1" t="inlineStr">
         <is>
           <t>Jan 1987</t>
         </is>
       </c>
-      <c r="PH1" s="1" t="inlineStr">
+      <c r="PI1" s="1" t="inlineStr">
         <is>
           <t>Dec 1986</t>
         </is>
       </c>
-      <c r="PI1" s="1" t="inlineStr">
+      <c r="PJ1" s="1" t="inlineStr">
         <is>
           <t>Nov 1986</t>
         </is>
       </c>
-      <c r="PJ1" s="1" t="inlineStr">
+      <c r="PK1" s="1" t="inlineStr">
         <is>
           <t>Oct 1986</t>
         </is>
       </c>
-      <c r="PK1" s="1" t="inlineStr">
+      <c r="PL1" s="1" t="inlineStr">
         <is>
           <t>Sep 1986</t>
         </is>
       </c>
-      <c r="PL1" s="1" t="inlineStr">
+      <c r="PM1" s="1" t="inlineStr">
         <is>
           <t>Aug 1986</t>
         </is>
       </c>
-      <c r="PM1" s="1" t="inlineStr">
+      <c r="PN1" s="1" t="inlineStr">
         <is>
           <t>Jul 1986</t>
         </is>
       </c>
-      <c r="PN1" s="1" t="inlineStr">
+      <c r="PO1" s="1" t="inlineStr">
         <is>
           <t>Jun 1986</t>
         </is>
       </c>
-      <c r="PO1" s="1" t="inlineStr">
+      <c r="PP1" s="1" t="inlineStr">
         <is>
           <t>May 1986</t>
         </is>
       </c>
-      <c r="PP1" s="1" t="inlineStr">
+      <c r="PQ1" s="1" t="inlineStr">
         <is>
           <t>Apr 1986</t>
         </is>
       </c>
-      <c r="PQ1" s="1" t="inlineStr">
+      <c r="PR1" s="1" t="inlineStr">
         <is>
           <t>Mar 1986</t>
         </is>
       </c>
-      <c r="PR1" s="1" t="inlineStr">
+      <c r="PS1" s="1" t="inlineStr">
         <is>
           <t>Feb 1986</t>
         </is>
       </c>
-      <c r="PS1" s="1" t="inlineStr">
+      <c r="PT1" s="1" t="inlineStr">
         <is>
           <t>Jan 1986</t>
         </is>
       </c>
-      <c r="PT1" s="1" t="inlineStr">
+      <c r="PU1" s="1" t="inlineStr">
         <is>
           <t>Dec 1985</t>
         </is>
       </c>
-      <c r="PU1" s="1" t="inlineStr">
+      <c r="PV1" s="1" t="inlineStr">
         <is>
           <t>Nov 1985</t>
         </is>
       </c>
-      <c r="PV1" s="1" t="inlineStr">
+      <c r="PW1" s="1" t="inlineStr">
         <is>
           <t>Oct 1985</t>
         </is>
       </c>
-      <c r="PW1" s="1" t="inlineStr">
+      <c r="PX1" s="1" t="inlineStr">
         <is>
           <t>Sep 1985</t>
         </is>
       </c>
-      <c r="PX1" s="1" t="inlineStr">
+      <c r="PY1" s="1" t="inlineStr">
         <is>
           <t>Aug 1985</t>
         </is>
       </c>
-      <c r="PY1" s="1" t="inlineStr">
+      <c r="PZ1" s="1" t="inlineStr">
         <is>
           <t>Jul 1985</t>
         </is>
       </c>
-      <c r="PZ1" s="1" t="inlineStr">
+      <c r="QA1" s="1" t="inlineStr">
         <is>
           <t>Jun 1985</t>
         </is>
       </c>
-      <c r="QA1" s="1" t="inlineStr">
+      <c r="QB1" s="1" t="inlineStr">
         <is>
           <t>May 1985</t>
         </is>
       </c>
-      <c r="QB1" s="1" t="inlineStr">
+      <c r="QC1" s="1" t="inlineStr">
         <is>
           <t>Apr 1985</t>
         </is>
       </c>
-      <c r="QC1" s="1" t="inlineStr">
+      <c r="QD1" s="1" t="inlineStr">
         <is>
           <t>Mar 1985</t>
         </is>
       </c>
-      <c r="QD1" s="1" t="inlineStr">
+      <c r="QE1" s="1" t="inlineStr">
         <is>
           <t>Feb 1985</t>
         </is>
       </c>
-      <c r="QE1" s="1" t="inlineStr">
+      <c r="QF1" s="1" t="inlineStr">
         <is>
           <t>Jan 1985</t>
         </is>
       </c>
-      <c r="QF1" s="1" t="inlineStr">
+      <c r="QG1" s="1" t="inlineStr">
         <is>
           <t>Dec 1984</t>
         </is>
       </c>
-      <c r="QG1" s="1" t="inlineStr">
+      <c r="QH1" s="1" t="inlineStr">
         <is>
           <t>Nov 1984</t>
         </is>
       </c>
-      <c r="QH1" s="1" t="inlineStr">
+      <c r="QI1" s="1" t="inlineStr">
         <is>
           <t>Oct 1984</t>
         </is>
       </c>
-      <c r="QI1" s="1" t="inlineStr">
+      <c r="QJ1" s="1" t="inlineStr">
         <is>
           <t>Sep 1984</t>
         </is>
       </c>
-      <c r="QJ1" s="1" t="inlineStr">
+      <c r="QK1" s="1" t="inlineStr">
         <is>
           <t>Aug 1984</t>
         </is>
       </c>
-      <c r="QK1" s="1" t="inlineStr">
+      <c r="QL1" s="1" t="inlineStr">
         <is>
           <t>Jul 1984</t>
         </is>
       </c>
-      <c r="QL1" s="1" t="inlineStr">
+      <c r="QM1" s="1" t="inlineStr">
         <is>
           <t>Jun 1984</t>
         </is>
       </c>
-      <c r="QM1" s="1" t="inlineStr">
+      <c r="QN1" s="1" t="inlineStr">
         <is>
           <t>May 1984</t>
         </is>
       </c>
-      <c r="QN1" s="1" t="inlineStr">
+      <c r="QO1" s="1" t="inlineStr">
         <is>
           <t>Apr 1984</t>
         </is>
       </c>
-      <c r="QO1" s="1" t="inlineStr">
+      <c r="QP1" s="1" t="inlineStr">
         <is>
           <t>Mar 1984</t>
         </is>
       </c>
-      <c r="QP1" s="1" t="inlineStr">
+      <c r="QQ1" s="1" t="inlineStr">
         <is>
           <t>Feb 1984</t>
         </is>
       </c>
-      <c r="QQ1" s="1" t="inlineStr">
+      <c r="QR1" s="1" t="inlineStr">
         <is>
           <t>Jan 1984</t>
         </is>
       </c>
-      <c r="QR1" s="1" t="inlineStr">
+      <c r="QS1" s="1" t="inlineStr">
         <is>
           <t>Dec 1983</t>
         </is>
       </c>
-      <c r="QS1" s="1" t="inlineStr">
+      <c r="QT1" s="1" t="inlineStr">
         <is>
           <t>Nov 1983</t>
         </is>
       </c>
-      <c r="QT1" s="1" t="inlineStr">
+      <c r="QU1" s="1" t="inlineStr">
         <is>
           <t>Oct 1983</t>
         </is>
       </c>
-      <c r="QU1" s="1" t="inlineStr">
+      <c r="QV1" s="1" t="inlineStr">
         <is>
           <t>Sep 1983</t>
         </is>
       </c>
-      <c r="QV1" s="1" t="inlineStr">
+      <c r="QW1" s="1" t="inlineStr">
         <is>
           <t>Aug 1983</t>
         </is>
       </c>
-      <c r="QW1" s="1" t="inlineStr">
+      <c r="QX1" s="1" t="inlineStr">
         <is>
           <t>Jul 1983</t>
         </is>
       </c>
-      <c r="QX1" s="1" t="inlineStr">
+      <c r="QY1" s="1" t="inlineStr">
         <is>
           <t>Jun 1983</t>
         </is>
       </c>
-      <c r="QY1" s="1" t="inlineStr">
+      <c r="QZ1" s="1" t="inlineStr">
         <is>
           <t>May 1983</t>
         </is>
       </c>
-      <c r="QZ1" s="1" t="inlineStr">
+      <c r="RA1" s="1" t="inlineStr">
         <is>
           <t>Apr 1983</t>
         </is>
       </c>
-      <c r="RA1" s="1" t="inlineStr">
+      <c r="RB1" s="1" t="inlineStr">
         <is>
           <t>Mar 1983</t>
         </is>
       </c>
-      <c r="RB1" s="1" t="inlineStr">
+      <c r="RC1" s="1" t="inlineStr">
         <is>
           <t>Feb 1983</t>
         </is>
       </c>
-      <c r="RC1" s="1" t="inlineStr">
+      <c r="RD1" s="1" t="inlineStr">
         <is>
           <t>Jan 1983</t>
         </is>
@@ -2731,399 +2736,399 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
         <v>35242.8</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>35337.5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>35089.9</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>31461.8</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>29950.3</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>30378.5</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>32551.5</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>31312.7</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>28888</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>30793.8</v>
       </c>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
         <v>34706</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>34071.9</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>33498</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>30200.1</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>29272.7</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>28025</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>29051.6</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>27880.9</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>24557.7</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>22974</v>
       </c>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="n">
         <v>32703.8</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>32345.4</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>32744.1</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>29112.4</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>29134.3</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>28353.8</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>28959</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>28303.9</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>26259</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>27191.8</v>
       </c>
-      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="n">
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>30328.9</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>29990</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>30600.6</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>27069</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>27169</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>26388.2</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>26374.9</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>26092.2</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AW2" t="n">
         <v>24527.7</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AX2" t="n">
         <v>25050.3</v>
       </c>
-      <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="n">
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="n">
         <v>29753.5</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
         <v>29407.1</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC2" t="n">
         <v>29536.6</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>26164.1</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BE2" t="n">
         <v>26169.1</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BF2" t="n">
         <v>25473.5</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BG2" t="n">
         <v>25544.8</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BH2" t="n">
         <v>25360.1</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BI2" t="n">
         <v>23483.2</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BJ2" t="n">
         <v>23939.8</v>
       </c>
-      <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="n">
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="n">
         <v>27233</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BN2" t="n">
         <v>26748.2</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BO2" t="n">
         <v>26893.1</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BP2" t="n">
         <v>23757.2</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BQ2" t="n">
         <v>23807.7</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BR2" t="n">
         <v>23126.1</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BS2" t="n">
         <v>23082.1</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BT2" t="n">
         <v>22972.9</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BU2" t="n">
         <v>21274.2</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BV2" t="n">
         <v>21616.1</v>
       </c>
-      <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr"/>
-      <c r="BX2" t="n">
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="n">
         <v>24565.9</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BZ2" t="n">
         <v>24143.3</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CA2" t="n">
         <v>24447</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CB2" t="n">
         <v>21467.8</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CC2" t="n">
         <v>21528.2</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CD2" t="n">
         <v>20996.4</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CE2" t="n">
         <v>20886</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CF2" t="n">
         <v>20907.9</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CG2" t="n">
         <v>19347.5</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CH2" t="n">
         <v>19573.8</v>
       </c>
-      <c r="CH2" t="inlineStr"/>
       <c r="CI2" t="inlineStr"/>
-      <c r="CJ2" t="n">
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="n">
         <v>22166.1</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CL2" t="n">
         <v>20315.7</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CM2" t="n">
         <v>20753.7</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CN2" t="n">
         <v>19614</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CO2" t="n">
         <v>18306.4</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CP2" t="n">
         <v>17958.7</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CQ2" t="n">
         <v>18238.7</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CR2" t="n">
         <v>18400.5</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CS2" t="n">
         <v>17060.4</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CT2" t="n">
         <v>17087.1</v>
       </c>
-      <c r="CT2" t="inlineStr"/>
       <c r="CU2" t="inlineStr"/>
-      <c r="CV2" t="n">
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="n">
         <v>19825.1</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="CX2" t="n">
         <v>18204.2</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="CY2" t="n">
         <v>18633.5</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="CZ2" t="n">
         <v>17606.4</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DA2" t="n">
         <v>16379.5</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DB2" t="n">
         <v>16024.1</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DC2" t="n">
         <v>16244.6</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DD2" t="n">
         <v>16383.7</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DE2" t="n">
         <v>15267.3</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DF2" t="n">
         <v>15238.1</v>
       </c>
-      <c r="DF2" t="inlineStr"/>
       <c r="DG2" t="inlineStr"/>
-      <c r="DH2" t="n">
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="n">
         <v>17511.4</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DJ2" t="n">
         <v>16030.9</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DK2" t="n">
         <v>16443.4</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DL2" t="n">
         <v>15572.3</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DM2" t="n">
         <v>14481.9</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DN2" t="n">
         <v>14154.6</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DO2" t="n">
         <v>14345.1</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DP2" t="n">
         <v>14536</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DQ2" t="n">
         <v>13553.7</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DR2" t="n">
         <v>13563.4</v>
       </c>
-      <c r="DR2" t="inlineStr"/>
       <c r="DS2" t="inlineStr"/>
-      <c r="DT2" t="n">
+      <c r="DT2" t="inlineStr"/>
+      <c r="DU2" t="n">
         <v>15319.6</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DV2" t="n">
         <v>13968.5</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>14355</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>13542.5</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>12783.1</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>12489.5</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>12584</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>12771.9</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>11846.5</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>11800.8</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>11917.2</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>13256</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>13259.8</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>12046.4</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>12395.5</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>11742.5</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>10929.9</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>10655.1</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>10715.2</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>10818.3</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>9979.9</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>9822.1</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>10231.6</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>10517</v>
       </c>
-      <c r="ER2" t="inlineStr"/>
       <c r="ES2" t="inlineStr"/>
       <c r="ET2" t="inlineStr"/>
       <c r="EU2" t="inlineStr"/>
@@ -3447,6 +3452,7 @@
       <c r="RA2" t="inlineStr"/>
       <c r="RB2" t="inlineStr"/>
       <c r="RC2" t="inlineStr"/>
+      <c r="RD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3454,423 +3460,423 @@
           <t>Total Retail Sales of Urban Consumer Goods, Accumulated(100 million yuan)</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
         <v>64593.1</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
         <v>381558.4</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>346315.6</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>310978.1</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>275888.2</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>244426.4</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>214476.1</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>184097.6</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>151546.1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>120233.4</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>91345.39999999999</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>60551.6</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
         <v>339119</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>304413</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>270341.1</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>236843.1</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>206643</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>177370.3</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>149345.3</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>120293.7</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>92412.7</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>67855</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>44881.1</v>
       </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="n">
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
         <v>351317.5</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>318613.7</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>286268.3</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>253524.1</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>224411.7</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>195277.5</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>166923.7</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>137964.7</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>109660.8</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
         <v>83401.7</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>56210</v>
       </c>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="n">
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>325636.9</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AP3" t="n">
         <v>295308</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AQ3" t="n">
         <v>265318</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="n">
         <v>234717.5</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
         <v>207648.5</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AT3" t="n">
         <v>180479.6</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3" t="n">
         <v>154091.3</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AV3" t="n">
         <v>127716.4</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AW3" t="n">
         <v>101624.2</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AX3" t="n">
         <v>77096.5</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
         <v>52046.2</v>
       </c>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="n">
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="n">
         <v>314289.7</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BB3" t="n">
         <v>284536.1</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BC3" t="n">
         <v>255129.1</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>225592.5</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BE3" t="n">
         <v>199428.4</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BF3" t="n">
         <v>173259.4</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BG3" t="n">
         <v>147785.8</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BH3" t="n">
         <v>122241</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BI3" t="n">
         <v>96880.89999999999</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BJ3" t="n">
         <v>73397.7</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BK3" t="n">
         <v>49457.9</v>
       </c>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="n">
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="n">
         <v>285814</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BN3" t="n">
         <v>258581.1</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BO3" t="n">
         <v>231832.9</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BP3" t="n">
         <v>204939.8</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BQ3" t="n">
         <v>181182.6</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BR3" t="n">
         <v>157374.9</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BS3" t="n">
         <v>134248.8</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BT3" t="n">
         <v>111166.7</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BU3" t="n">
         <v>88193.8</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BV3" t="n">
         <v>66919.5</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BW3" t="n">
         <v>45303.4</v>
       </c>
-      <c r="BW3" t="inlineStr"/>
-      <c r="BX3" t="n">
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="n">
         <v>258998.7</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BZ3" t="n">
         <v>234432.8</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="CA3" t="n">
         <v>210289.5</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CB3" t="n">
         <v>185842.6</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CC3" t="n">
         <v>164374.8</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CD3" t="n">
         <v>142846.6</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CE3" t="n">
         <v>121850.2</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CF3" t="n">
         <v>100964.3</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CG3" t="n">
         <v>80056.3</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CH3" t="n">
         <v>60708.8</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CI3" t="n">
         <v>41135</v>
       </c>
-      <c r="CI3" t="inlineStr"/>
-      <c r="CJ3" t="n">
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="n">
         <v>226367.5</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CL3" t="n">
         <v>204201.4</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CM3" t="n">
         <v>183885.8</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="CN3" t="n">
         <v>163132.1</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="CO3" t="n">
         <v>143518.1</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="CP3" t="n">
         <v>125211.7</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="CQ3" t="n">
         <v>107253</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="CR3" t="n">
         <v>89014.3</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="CS3" t="n">
         <v>70613.8</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="CT3" t="n">
         <v>53553.4</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="CU3" t="n">
         <v>36466.3</v>
       </c>
-      <c r="CU3" t="inlineStr"/>
-      <c r="CV3" t="n">
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="n">
         <v>202462</v>
       </c>
-      <c r="CW3" t="n">
+      <c r="CX3" t="n">
         <v>182636.9</v>
       </c>
-      <c r="CX3" t="n">
+      <c r="CY3" t="n">
         <v>164432.7</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="CZ3" t="n">
         <v>145799.2</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="DA3" t="n">
         <v>128192.8</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DB3" t="n">
         <v>111813.3</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="DC3" t="n">
         <v>95789.10000000001</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DD3" t="n">
         <v>79544.5</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DE3" t="n">
         <v>63160.8</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="DF3" t="n">
         <v>47893.5</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="DG3" t="n">
         <v>32655.4</v>
       </c>
-      <c r="DG3" t="inlineStr"/>
-      <c r="DH3" t="n">
+      <c r="DH3" t="inlineStr"/>
+      <c r="DI3" t="n">
         <v>179317.6</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="DJ3" t="n">
         <v>161806.2</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="DK3" t="n">
         <v>145775.3</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="DL3" t="n">
         <v>129331.9</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DM3" t="n">
         <v>113759.6</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DN3" t="n">
         <v>99277.7</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DO3" t="n">
         <v>85123.10000000001</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DP3" t="n">
         <v>70778</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DQ3" t="n">
         <v>56242</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DR3" t="n">
         <v>42688.3</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DS3" t="n">
         <v>29124.9</v>
       </c>
-      <c r="DS3" t="inlineStr"/>
-      <c r="DT3" t="n">
+      <c r="DT3" t="inlineStr"/>
+      <c r="DU3" t="n">
         <v>156908.3</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DV3" t="n">
         <v>141588.7</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DW3" t="n">
         <v>127620.2</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DX3" t="n">
         <v>113265.2</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DY3" t="n">
         <v>99722.8</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>86939.7</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>74450.2</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
         <v>61866.2</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>49094.3</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>37247.8</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>25173.2</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EF3" t="n">
         <v>13256</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EG3" t="n">
         <v>133688.9</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>120429.1</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>108382.7</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>95987.2</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>84244.7</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>73314.8</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>62659.7</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>51368.9</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>40550.6</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>30570.7</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>20748.6</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ER3" t="n">
         <v>10517</v>
       </c>
-      <c r="ER3" t="inlineStr"/>
       <c r="ES3" t="inlineStr"/>
       <c r="ET3" t="inlineStr"/>
       <c r="EU3" t="inlineStr"/>
@@ -4194,6 +4200,7 @@
       <c r="RA3" t="inlineStr"/>
       <c r="RB3" t="inlineStr"/>
       <c r="RC3" t="inlineStr"/>
+      <c r="RD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4203,270 +4210,268 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
         <v>1.5</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>3.7</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>4.8</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>4.2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>2.3</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>8.4</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>12</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>12.3</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>17.6</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>34</v>
       </c>
-      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="n">
         <v>4.4</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>4.9</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>4.2</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>3.2</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>0.5</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-1.1</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>-2</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-2.8</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>-7.5</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>-15.9</v>
       </c>
-      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="n">
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="n">
         <v>7.8</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>7.9</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>7</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>7.5</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>7.2</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>7.4</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>8.5</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>7.1</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>8.5</v>
       </c>
-      <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="n">
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>8</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>7.9</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AQ4" t="n">
         <v>8.4</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AR4" t="n">
         <v>9</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AS4" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AT4" t="n">
         <v>8.6</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AU4" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AV4" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AW4" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AX4" t="n">
         <v>9.9</v>
       </c>
-      <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="n">
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>9.9</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BC4" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>10.1</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BE4" t="n">
         <v>9.9</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BF4" t="n">
         <v>10.2</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BG4" t="n">
         <v>10.7</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>10.4</v>
       </c>
       <c r="BH4" t="n">
         <v>10.4</v>
       </c>
       <c r="BI4" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="BJ4" t="n">
         <v>10.7</v>
       </c>
-      <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="n">
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="n">
         <v>10.9</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BN4" t="n">
         <v>10.8</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BO4" t="n">
         <v>10</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BP4" t="n">
         <v>10.7</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BQ4" t="n">
         <v>10.6</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BR4" t="n">
         <v>10.1</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BS4" t="n">
         <v>10.5</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BT4" t="n">
         <v>9.9</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BU4" t="n">
         <v>10</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BV4" t="n">
         <v>10.4</v>
       </c>
-      <c r="BV4" t="inlineStr"/>
       <c r="BW4" t="inlineStr"/>
-      <c r="BX4" t="n">
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="n">
         <v>10.9</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BZ4" t="n">
         <v>11</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="CA4" t="n">
         <v>10.8</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CB4" t="n">
         <v>10.7</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CC4" t="n">
         <v>10.6</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CD4" t="n">
         <v>10.3</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CE4" t="n">
         <v>10.4</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CF4" t="n">
         <v>9.9</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CG4" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CH4" t="n">
         <v>10</v>
       </c>
-      <c r="CH4" t="inlineStr"/>
       <c r="CI4" t="inlineStr"/>
-      <c r="CJ4" t="n">
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="n">
         <v>11.8</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CL4" t="n">
         <v>11.6</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>11.4</v>
       </c>
       <c r="CM4" t="n">
         <v>11.4</v>
       </c>
       <c r="CN4" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="CO4" t="n">
         <v>11.8</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="CP4" t="n">
         <v>12.1</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>12.3</v>
       </c>
       <c r="CQ4" t="n">
         <v>12.3</v>
       </c>
       <c r="CR4" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="CS4" t="n">
         <v>11.7</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="CT4" t="n">
         <v>12.1</v>
       </c>
-      <c r="CT4" t="inlineStr"/>
       <c r="CU4" t="inlineStr"/>
-      <c r="CV4" t="n">
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="n">
         <v>13.4</v>
       </c>
-      <c r="CW4" t="n">
+      <c r="CX4" t="n">
         <v>13.6</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>13.1</v>
       </c>
       <c r="CY4" t="n">
         <v>13.1</v>
@@ -4475,127 +4480,129 @@
         <v>13.1</v>
       </c>
       <c r="DA4" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="DB4" t="n">
         <v>12.9</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="DC4" t="n">
         <v>13</v>
-      </c>
-      <c r="DC4" t="n">
-        <v>12.6</v>
       </c>
       <c r="DD4" t="n">
         <v>12.6</v>
       </c>
       <c r="DE4" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="DF4" t="n">
         <v>12.2</v>
       </c>
-      <c r="DF4" t="inlineStr"/>
       <c r="DG4" t="inlineStr"/>
-      <c r="DH4" t="n">
+      <c r="DH4" t="inlineStr"/>
+      <c r="DI4" t="n">
         <v>15.2</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="DJ4" t="n">
         <v>15</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="DK4" t="n">
         <v>14.5</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="DL4" t="n">
         <v>14.2</v>
-      </c>
-      <c r="DL4" t="n">
-        <v>13.1</v>
       </c>
       <c r="DM4" t="n">
         <v>13.1</v>
       </c>
       <c r="DN4" t="n">
-        <v>13.7</v>
+        <v>13.1</v>
       </c>
       <c r="DO4" t="n">
         <v>13.7</v>
       </c>
       <c r="DP4" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="DQ4" t="n">
         <v>14</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DR4" t="n">
         <v>15.2</v>
       </c>
-      <c r="DR4" t="inlineStr"/>
       <c r="DS4" t="inlineStr"/>
-      <c r="DT4" t="n">
+      <c r="DT4" t="inlineStr"/>
+      <c r="DU4" t="n">
         <v>18.2</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DV4" t="n">
         <v>17.3</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DW4" t="n">
         <v>17.2</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DX4" t="n">
         <v>17.8</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DY4" t="n">
         <v>17.1</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DZ4" t="n">
         <v>17.3</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EA4" t="n">
         <v>17.8</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EB4" t="n">
         <v>17</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EC4" t="n">
         <v>17.3</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>17.5</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>11.7</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EF4" t="n">
         <v>20</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EG4" t="n">
         <v>19.5</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EH4" t="n">
         <v>19</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>18.9</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>19.1</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>18.8</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>18.2</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>18.7</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>19.1</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>18.9</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>18.5</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>23.1</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ER4" t="n">
         <v>14.1</v>
       </c>
-      <c r="ER4" t="inlineStr"/>
       <c r="ES4" t="inlineStr"/>
       <c r="ET4" t="inlineStr"/>
       <c r="EU4" t="inlineStr"/>
@@ -4919,6 +4926,7 @@
       <c r="RA4" t="inlineStr"/>
       <c r="RB4" t="inlineStr"/>
       <c r="RC4" t="inlineStr"/>
+      <c r="RD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4926,81 +4934,79 @@
           <t>Total Retail Sales of Urban Consumer Goods, Accumulated Growth Rate(%)</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
         <v>6.7</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
         <v>12.5</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>13.8</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>15</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>16.5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>18.3</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>20.9</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>23.3</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>26</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>30.1</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>34.6</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>34.9</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
         <v>-4</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>-4.9</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>-6</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-7.3</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>-8.699999999999999</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-10</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>-11.5</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-13.5</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>-16.3</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>-19.1</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>-20.7</v>
       </c>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="n">
-        <v>7.9</v>
-      </c>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
         <v>7.9</v>
       </c>
@@ -5008,41 +5014,41 @@
         <v>7.9</v>
       </c>
       <c r="AE5" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AF5" t="n">
         <v>8</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>8.1</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>8</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>7.9</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>8</v>
       </c>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="n">
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AP5" t="n">
         <v>8.9</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AQ5" t="n">
         <v>9</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>9.1</v>
       </c>
       <c r="AR5" t="n">
         <v>9.1</v>
@@ -5051,24 +5057,24 @@
         <v>9.1</v>
       </c>
       <c r="AT5" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AU5" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AV5" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AW5" t="n">
         <v>9.6</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AX5" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AY5" t="n">
         <v>9.6</v>
       </c>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="n">
-        <v>10</v>
-      </c>
+      <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="n">
         <v>10</v>
       </c>
@@ -5076,7 +5082,7 @@
         <v>10</v>
       </c>
       <c r="BC5" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="BD5" t="n">
         <v>10.1</v>
@@ -5088,32 +5094,32 @@
         <v>10.1</v>
       </c>
       <c r="BG5" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="BH5" t="n">
         <v>10</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BI5" t="n">
         <v>9.9</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BJ5" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BK5" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="n">
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="n">
         <v>10.4</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BN5" t="n">
         <v>10.3</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BO5" t="n">
         <v>10.2</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BP5" t="n">
         <v>10.3</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>10.2</v>
       </c>
       <c r="BQ5" t="n">
         <v>10.2</v>
@@ -5122,35 +5128,35 @@
         <v>10.2</v>
       </c>
       <c r="BS5" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="BT5" t="n">
         <v>10.1</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>10.2</v>
       </c>
       <c r="BU5" t="n">
         <v>10.2</v>
       </c>
       <c r="BV5" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="BW5" t="n">
         <v>10.1</v>
       </c>
-      <c r="BW5" t="inlineStr"/>
-      <c r="BX5" t="n">
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="n">
         <v>10.5</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>10.4</v>
       </c>
       <c r="BZ5" t="n">
         <v>10.4</v>
       </c>
       <c r="CA5" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="CB5" t="n">
         <v>10.3</v>
       </c>
       <c r="CC5" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="CD5" t="n">
         <v>10.2</v>
@@ -5162,15 +5168,15 @@
         <v>10.2</v>
       </c>
       <c r="CG5" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="CH5" t="n">
         <v>10.4</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CI5" t="n">
         <v>10.6</v>
       </c>
-      <c r="CI5" t="inlineStr"/>
-      <c r="CJ5" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="CJ5" t="inlineStr"/>
       <c r="CK5" t="n">
         <v>11.8</v>
       </c>
@@ -5178,10 +5184,10 @@
         <v>11.8</v>
       </c>
       <c r="CM5" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="CN5" t="n">
         <v>11.9</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>12</v>
       </c>
       <c r="CO5" t="n">
         <v>12</v>
@@ -5190,91 +5196,91 @@
         <v>12</v>
       </c>
       <c r="CQ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR5" t="n">
         <v>11.9</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>11.8</v>
       </c>
       <c r="CS5" t="n">
         <v>11.8</v>
       </c>
       <c r="CT5" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="CU5" t="n">
         <v>11.7</v>
       </c>
-      <c r="CU5" t="inlineStr"/>
-      <c r="CV5" t="n">
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="n">
         <v>12.9</v>
       </c>
-      <c r="CW5" t="n">
+      <c r="CX5" t="n">
         <v>12.8</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>12.7</v>
       </c>
       <c r="CY5" t="n">
         <v>12.7</v>
       </c>
       <c r="CZ5" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="DA5" t="n">
         <v>12.6</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>12.5</v>
       </c>
       <c r="DB5" t="n">
         <v>12.5</v>
       </c>
       <c r="DC5" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="DD5" t="n">
         <v>12.3</v>
       </c>
       <c r="DE5" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="DF5" t="n">
         <v>12.2</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="DG5" t="n">
         <v>12.1</v>
       </c>
-      <c r="DG5" t="inlineStr"/>
-      <c r="DH5" t="n">
+      <c r="DH5" t="inlineStr"/>
+      <c r="DI5" t="n">
         <v>14.3</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="DJ5" t="n">
         <v>14.2</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="DK5" t="n">
         <v>14.1</v>
-      </c>
-      <c r="DK5" t="n">
-        <v>14</v>
       </c>
       <c r="DL5" t="n">
         <v>14</v>
       </c>
       <c r="DM5" t="n">
+        <v>14</v>
+      </c>
+      <c r="DN5" t="n">
         <v>14.2</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="DO5" t="n">
         <v>14.3</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DP5" t="n">
         <v>14.5</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DQ5" t="n">
         <v>14.7</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DR5" t="n">
         <v>14.9</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="DS5" t="n">
         <v>14.7</v>
       </c>
-      <c r="DS5" t="inlineStr"/>
-      <c r="DT5" t="n">
+      <c r="DT5" t="inlineStr"/>
+      <c r="DU5" t="n">
         <v>17.2</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>17.1</v>
       </c>
       <c r="DV5" t="n">
         <v>17.1</v>
@@ -5283,34 +5289,34 @@
         <v>17.1</v>
       </c>
       <c r="DX5" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="DY5" t="n">
         <v>17</v>
-      </c>
-      <c r="DY5" t="n">
-        <v>16.9</v>
       </c>
       <c r="DZ5" t="n">
         <v>16.9</v>
       </c>
       <c r="EA5" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="EB5" t="n">
         <v>16.7</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EC5" t="n">
         <v>16.6</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="ED5" t="n">
         <v>16.4</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EE5" t="n">
         <v>15.9</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EF5" t="n">
         <v>20</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EG5" t="n">
         <v>18.8</v>
-      </c>
-      <c r="EG5" t="n">
-        <v>18.7</v>
       </c>
       <c r="EH5" t="n">
         <v>18.7</v>
@@ -5319,7 +5325,7 @@
         <v>18.7</v>
       </c>
       <c r="EJ5" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="EK5" t="n">
         <v>18.6</v>
@@ -5331,18 +5337,20 @@
         <v>18.6</v>
       </c>
       <c r="EN5" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="EO5" t="n">
         <v>18.5</v>
-      </c>
-      <c r="EO5" t="n">
-        <v>18.4</v>
       </c>
       <c r="EP5" t="n">
         <v>18.4</v>
       </c>
       <c r="EQ5" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="ER5" t="n">
         <v>14.1</v>
       </c>
-      <c r="ER5" t="inlineStr"/>
       <c r="ES5" t="inlineStr"/>
       <c r="ET5" t="inlineStr"/>
       <c r="EU5" t="inlineStr"/>
@@ -5666,6 +5674,7 @@
       <c r="RA5" t="inlineStr"/>
       <c r="RB5" t="inlineStr"/>
       <c r="RC5" t="inlineStr"/>
+      <c r="RD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5675,399 +5684,399 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
         <v>6026.1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>5705.7</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>5364</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>5371.2</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>4444.5</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>4546.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>5034.3</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>4632.4</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>4264.6</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>4690.2</v>
       </c>
-      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
         <v>5860</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>5442.3</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>5078.5</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>5094.6</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>4297.9</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>4177.5</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>4474.3</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>4091.8</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>3620.1</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>3475.9</v>
       </c>
-      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="n">
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
         <v>6072.9</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>5748.4</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>5360.2</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>5382.5</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>4762.1</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>4719.5</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>4919.2</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>4651.8</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
         <v>4327.1</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>4533.9</v>
       </c>
-      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="n">
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>5564.6</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AP6" t="n">
         <v>5269.7</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AQ6" t="n">
         <v>4933.8</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AR6" t="n">
         <v>4936.4</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AS6" t="n">
         <v>4373.3</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AT6" t="n">
         <v>4345.5</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AU6" t="n">
         <v>4466.6</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AV6" t="n">
         <v>4266.9</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AW6" t="n">
         <v>4014.2</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AX6" t="n">
         <v>4143.4</v>
       </c>
-      <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="n">
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="n">
         <v>4980.6</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BB6" t="n">
         <v>4701.1</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BC6" t="n">
         <v>4704.3</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>4706.2</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BE6" t="n">
         <v>4160.6</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BF6" t="n">
         <v>4136.3</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BG6" t="n">
         <v>4262.8</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BH6" t="n">
         <v>4099.1</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BI6" t="n">
         <v>3795.3</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BJ6" t="n">
         <v>3923.9</v>
       </c>
-      <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
-      <c r="BL6" t="n">
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="n">
         <v>4524</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BN6" t="n">
         <v>4210.4</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BO6" t="n">
         <v>4226.1</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BP6" t="n">
         <v>4219.2</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BQ6" t="n">
         <v>3731.9</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BR6" t="n">
         <v>3701.4</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BS6" t="n">
         <v>3775.3</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BT6" t="n">
         <v>3637.8</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BU6" t="n">
         <v>3371.6</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BV6" t="n">
         <v>3498</v>
       </c>
-      <c r="BV6" t="inlineStr"/>
       <c r="BW6" t="inlineStr"/>
-      <c r="BX6" t="n">
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="n">
         <v>4068.8</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="BZ6" t="n">
         <v>3794.1</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="CA6" t="n">
         <v>3831.9</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CB6" t="n">
         <v>3802.8</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CC6" t="n">
         <v>3365.2</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CD6" t="n">
         <v>3342.4</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CE6" t="n">
         <v>3394.3</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CF6" t="n">
         <v>3286.9</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CG6" t="n">
         <v>3039.2</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CH6" t="n">
         <v>3149.1</v>
       </c>
-      <c r="CH6" t="inlineStr"/>
       <c r="CI6" t="inlineStr"/>
-      <c r="CJ6" t="n">
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="n">
         <v>3635.2</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="CL6" t="n">
         <v>3159</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="CM6" t="n">
         <v>3213.5</v>
       </c>
-      <c r="CM6" t="n">
+      <c r="CN6" t="n">
         <v>3428.4</v>
       </c>
-      <c r="CN6" t="n">
+      <c r="CO6" t="n">
         <v>2827.5</v>
       </c>
-      <c r="CO6" t="n">
+      <c r="CP6" t="n">
         <v>2817.1</v>
       </c>
-      <c r="CP6" t="n">
+      <c r="CQ6" t="n">
         <v>2927.7</v>
       </c>
-      <c r="CQ6" t="n">
+      <c r="CR6" t="n">
         <v>2849.3</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="CS6" t="n">
         <v>2640.8</v>
       </c>
-      <c r="CS6" t="n">
+      <c r="CT6" t="n">
         <v>2713.5</v>
       </c>
-      <c r="CT6" t="inlineStr"/>
       <c r="CU6" t="inlineStr"/>
-      <c r="CV6" t="n">
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="n">
         <v>3234.6</v>
       </c>
-      <c r="CW6" t="n">
+      <c r="CX6" t="n">
         <v>2807.7</v>
       </c>
-      <c r="CX6" t="n">
+      <c r="CY6" t="n">
         <v>2857.8</v>
       </c>
-      <c r="CY6" t="n">
+      <c r="CZ6" t="n">
         <v>3046.9</v>
       </c>
-      <c r="CZ6" t="n">
+      <c r="DA6" t="n">
         <v>2506.7</v>
       </c>
-      <c r="DA6" t="n">
+      <c r="DB6" t="n">
         <v>2489.1</v>
       </c>
-      <c r="DB6" t="n">
+      <c r="DC6" t="n">
         <v>2582.1</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="DD6" t="n">
         <v>2502.6</v>
       </c>
-      <c r="DD6" t="n">
+      <c r="DE6" t="n">
         <v>2333</v>
       </c>
-      <c r="DE6" t="n">
+      <c r="DF6" t="n">
         <v>2403.1</v>
       </c>
-      <c r="DF6" t="inlineStr"/>
       <c r="DG6" t="inlineStr"/>
-      <c r="DH6" t="n">
+      <c r="DH6" t="inlineStr"/>
+      <c r="DI6" t="n">
         <v>2822.8</v>
       </c>
-      <c r="DI6" t="n">
+      <c r="DJ6" t="n">
         <v>2445.8</v>
       </c>
-      <c r="DJ6" t="n">
+      <c r="DK6" t="n">
         <v>2490.4</v>
       </c>
-      <c r="DK6" t="n">
+      <c r="DL6" t="n">
         <v>2654.3</v>
       </c>
-      <c r="DL6" t="n">
+      <c r="DM6" t="n">
         <v>2177</v>
       </c>
-      <c r="DM6" t="n">
+      <c r="DN6" t="n">
         <v>2160.3</v>
       </c>
-      <c r="DN6" t="n">
+      <c r="DO6" t="n">
         <v>2239.8</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="DP6" t="n">
         <v>2178.8</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="DQ6" t="n">
         <v>2049.4</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="DR6" t="n">
         <v>2086.8</v>
       </c>
-      <c r="DR6" t="inlineStr"/>
       <c r="DS6" t="inlineStr"/>
-      <c r="DT6" t="n">
+      <c r="DT6" t="inlineStr"/>
+      <c r="DU6" t="n">
         <v>2420.1</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="DV6" t="n">
         <v>2160.4</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DW6" t="n">
         <v>2191.4</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DX6" t="n">
         <v>2322.6</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DY6" t="n">
         <v>1921.9</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DZ6" t="n">
         <v>1918.5</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EA6" t="n">
         <v>1981.1</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EB6" t="n">
         <v>1924.9</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EC6" t="n">
         <v>1802.5</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="ED6" t="n">
         <v>1787.2</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EE6" t="n">
         <v>1851.9</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EF6" t="n">
         <v>1993</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EG6" t="n">
         <v>2069.7</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EH6" t="n">
         <v>1864.5</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EI6" t="n">
         <v>1889.3</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EJ6" t="n">
         <v>1794</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EK6" t="n">
         <v>1639.9</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EL6" t="n">
         <v>1597.7</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EM6" t="n">
         <v>1614.7</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>1636.8</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>1530.5</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>1499.6</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EQ6" t="n">
         <v>2102.6</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="ER6" t="n">
         <v>2201.1</v>
       </c>
-      <c r="ER6" t="inlineStr"/>
       <c r="ES6" t="inlineStr"/>
       <c r="ET6" t="inlineStr"/>
       <c r="EU6" t="inlineStr"/>
@@ -6391,6 +6400,7 @@
       <c r="RA6" t="inlineStr"/>
       <c r="RB6" t="inlineStr"/>
       <c r="RC6" t="inlineStr"/>
+      <c r="RD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6398,423 +6408,423 @@
           <t>Total Retail Sales of Rural Consumer Goods, Accumulated(100 million yuan)</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
         <v>9832.9</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
         <v>59264.8</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>53238.7</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>47533</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>42169</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>36797.8</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>32353.3</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>27806.7</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>22772.5</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>18140.1</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>13875.4</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>9185.200000000001</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="n">
         <v>52861.7</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>47001.7</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>41559.4</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>36480.9</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>31386.4</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>27088.4</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>22910.9</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>18436.6</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>14344.8</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>10724.7</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>7248.8</v>
       </c>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="n">
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
         <v>60331.5</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>54258.6</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>48510.2</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>43150</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
         <v>37767.6</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>33005.5</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AI7" t="n">
         <v>28286</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
         <v>23366.9</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
         <v>18715.1</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AL7" t="n">
         <v>14388</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AM7" t="n">
         <v>9854</v>
       </c>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="n">
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>55350</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AP7" t="n">
         <v>49785.3</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AQ7" t="n">
         <v>44515.6</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AR7" t="n">
         <v>39581.8</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AS7" t="n">
         <v>34645.4</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AT7" t="n">
         <v>30272.1</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AU7" t="n">
         <v>25926.6</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AV7" t="n">
         <v>21460</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AW7" t="n">
         <v>17193.1</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AX7" t="n">
         <v>13178.9</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AY7" t="n">
         <v>9035.6</v>
       </c>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="n">
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="n">
         <v>51971.9</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BB7" t="n">
         <v>46991.3</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BC7" t="n">
         <v>42290.2</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>37585.9</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BE7" t="n">
         <v>32879.7</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BF7" t="n">
         <v>28719</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BG7" t="n">
         <v>24582.8</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BH7" t="n">
         <v>20320</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BI7" t="n">
         <v>16220.9</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BJ7" t="n">
         <v>12425.6</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BK7" t="n">
         <v>8501.700000000001</v>
       </c>
-      <c r="BK7" t="inlineStr"/>
-      <c r="BL7" t="n">
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="n">
         <v>46503</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BN7" t="n">
         <v>41978.5</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BO7" t="n">
         <v>37768.1</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BP7" t="n">
         <v>33542</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BQ7" t="n">
         <v>29322.8</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BR7" t="n">
         <v>25590.9</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BS7" t="n">
         <v>21889.5</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BT7" t="n">
         <v>18114.2</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BU7" t="n">
         <v>14476.4</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BV7" t="n">
         <v>11104.9</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="BW7" t="n">
         <v>7606.9</v>
       </c>
-      <c r="BW7" t="inlineStr"/>
-      <c r="BX7" t="n">
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="n">
         <v>41932.1</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BZ7" t="n">
         <v>37863.3</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="CA7" t="n">
         <v>34069.2</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CB7" t="n">
         <v>30237.3</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CC7" t="n">
         <v>26434.5</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CD7" t="n">
         <v>23069.3</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="CE7" t="n">
         <v>19726.9</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="CF7" t="n">
         <v>16332.6</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CG7" t="n">
         <v>13045.7</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CH7" t="n">
         <v>10006.5</v>
       </c>
-      <c r="CH7" t="n">
+      <c r="CI7" t="n">
         <v>6857.5</v>
       </c>
-      <c r="CI7" t="inlineStr"/>
-      <c r="CJ7" t="n">
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="n">
         <v>36026.6</v>
       </c>
-      <c r="CK7" t="n">
+      <c r="CL7" t="n">
         <v>32391.4</v>
       </c>
-      <c r="CL7" t="n">
+      <c r="CM7" t="n">
         <v>29232.4</v>
       </c>
-      <c r="CM7" t="n">
+      <c r="CN7" t="n">
         <v>26018.9</v>
       </c>
-      <c r="CN7" t="n">
+      <c r="CO7" t="n">
         <v>22590.4</v>
       </c>
-      <c r="CO7" t="n">
+      <c r="CP7" t="n">
         <v>19762.8</v>
       </c>
-      <c r="CP7" t="n">
+      <c r="CQ7" t="n">
         <v>16945.7</v>
       </c>
-      <c r="CQ7" t="n">
+      <c r="CR7" t="n">
         <v>14018</v>
       </c>
-      <c r="CR7" t="n">
+      <c r="CS7" t="n">
         <v>11168.7</v>
       </c>
-      <c r="CS7" t="n">
+      <c r="CT7" t="n">
         <v>8527.9</v>
       </c>
-      <c r="CT7" t="n">
+      <c r="CU7" t="n">
         <v>5814.4</v>
       </c>
-      <c r="CU7" t="inlineStr"/>
-      <c r="CV7" t="n">
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="n">
         <v>31917.9</v>
       </c>
-      <c r="CW7" t="n">
+      <c r="CX7" t="n">
         <v>28683.3</v>
       </c>
-      <c r="CX7" t="n">
+      <c r="CY7" t="n">
         <v>25875.6</v>
       </c>
-      <c r="CY7" t="n">
+      <c r="CZ7" t="n">
         <v>23017.8</v>
       </c>
-      <c r="CZ7" t="n">
+      <c r="DA7" t="n">
         <v>19970.9</v>
       </c>
-      <c r="DA7" t="n">
+      <c r="DB7" t="n">
         <v>17464.2</v>
       </c>
-      <c r="DB7" t="n">
+      <c r="DC7" t="n">
         <v>14975.2</v>
       </c>
-      <c r="DC7" t="n">
+      <c r="DD7" t="n">
         <v>12393.1</v>
       </c>
-      <c r="DD7" t="n">
+      <c r="DE7" t="n">
         <v>9890.5</v>
       </c>
-      <c r="DE7" t="n">
+      <c r="DF7" t="n">
         <v>7557.5</v>
       </c>
-      <c r="DF7" t="n">
+      <c r="DG7" t="n">
         <v>5154.4</v>
       </c>
-      <c r="DG7" t="inlineStr"/>
-      <c r="DH7" t="n">
+      <c r="DH7" t="inlineStr"/>
+      <c r="DI7" t="n">
         <v>27849.1</v>
       </c>
-      <c r="DI7" t="n">
+      <c r="DJ7" t="n">
         <v>25026.3</v>
       </c>
-      <c r="DJ7" t="n">
+      <c r="DK7" t="n">
         <v>22580.5</v>
       </c>
-      <c r="DK7" t="n">
+      <c r="DL7" t="n">
         <v>20090.1</v>
       </c>
-      <c r="DL7" t="n">
+      <c r="DM7" t="n">
         <v>17435.8</v>
       </c>
-      <c r="DM7" t="n">
+      <c r="DN7" t="n">
         <v>15258.8</v>
       </c>
-      <c r="DN7" t="n">
+      <c r="DO7" t="n">
         <v>13098.5</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="DP7" t="n">
         <v>10858.7</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="DQ7" t="n">
         <v>8679.9</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="DR7" t="n">
         <v>6630.5</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="DS7" t="n">
         <v>4543.7</v>
       </c>
-      <c r="DS7" t="inlineStr"/>
-      <c r="DT7" t="n">
+      <c r="DT7" t="inlineStr"/>
+      <c r="DU7" t="n">
         <v>24317.5</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="DV7" t="n">
         <v>21897.4</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DW7" t="n">
         <v>19737</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DX7" t="n">
         <v>17545.6</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DY7" t="n">
         <v>15222.9</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DZ7" t="n">
         <v>13301</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EA7" t="n">
         <v>11382.5</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EB7" t="n">
         <v>9401.4</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EC7" t="n">
         <v>7476.5</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="ED7" t="n">
         <v>5674</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EE7" t="n">
         <v>3844.9</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EF7" t="n">
         <v>1993</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EG7" t="n">
         <v>20864.8</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EH7" t="n">
         <v>18795.1</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EI7" t="n">
         <v>16930.6</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EJ7" t="n">
         <v>15041.3</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EK7" t="n">
         <v>13247.3</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EL7" t="n">
         <v>11607.4</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EM7" t="n">
         <v>10009.7</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>8970.6</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EO7" t="n">
         <v>7333.8</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EP7" t="n">
         <v>5803.3</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="EQ7" t="n">
         <v>4303.7</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="ER7" t="n">
         <v>2201.1</v>
       </c>
-      <c r="ER7" t="inlineStr"/>
       <c r="ES7" t="inlineStr"/>
       <c r="ET7" t="inlineStr"/>
       <c r="EU7" t="inlineStr"/>
@@ -7138,6 +7148,7 @@
       <c r="RA7" t="inlineStr"/>
       <c r="RB7" t="inlineStr"/>
       <c r="RC7" t="inlineStr"/>
+      <c r="RD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -7147,399 +7158,399 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
         <v>2.8</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4.8</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>5.6</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>5.4</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>3.4</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>12.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>13.2</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>17.8</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>34.9</v>
       </c>
-      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="n">
         <v>5.9</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>5.6</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>5.1</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>4</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>0.7</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-1.3</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>-1.2</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-3.2</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>-7.7</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>-15.1</v>
       </c>
-      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="n">
-        <v>9.1</v>
-      </c>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
         <v>9.1</v>
       </c>
       <c r="AD8" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AE8" t="n">
         <v>8.6</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>9</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AG8" t="n">
         <v>8.9</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
         <v>8.6</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
         <v>10.1</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
         <v>9</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AK8" t="n">
         <v>7.8</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AL8" t="n">
         <v>9.4</v>
       </c>
-      <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="n">
-        <v>9.300000000000001</v>
-      </c>
+      <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="AP8" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AR8" t="n">
         <v>10.5</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AS8" t="n">
         <v>10.2</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AT8" t="n">
         <v>10.1</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AU8" t="n">
         <v>10.4</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AV8" t="n">
         <v>9.6</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AW8" t="n">
         <v>10.6</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AX8" t="n">
         <v>10.9</v>
       </c>
-      <c r="AX8" t="inlineStr"/>
       <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="n">
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="n">
         <v>10.1</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BB8" t="n">
         <v>11.7</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BC8" t="n">
         <v>11.3</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>11.5</v>
       </c>
       <c r="BD8" t="n">
         <v>11.5</v>
       </c>
       <c r="BE8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF8" t="n">
         <v>11.7</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BG8" t="n">
         <v>12.9</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BH8" t="n">
         <v>12.7</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BI8" t="n">
         <v>12.6</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BJ8" t="n">
         <v>12.2</v>
       </c>
-      <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="n">
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="n">
         <v>11.2</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BN8" t="n">
         <v>11</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BO8" t="n">
         <v>10.3</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BP8" t="n">
         <v>11</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BQ8" t="n">
         <v>10.9</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BR8" t="n">
         <v>10.7</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BS8" t="n">
         <v>11.2</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BT8" t="n">
         <v>10.7</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BU8" t="n">
         <v>10.9</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="BV8" t="n">
         <v>11.1</v>
       </c>
-      <c r="BV8" t="inlineStr"/>
       <c r="BW8" t="inlineStr"/>
-      <c r="BX8" t="n">
+      <c r="BX8" t="inlineStr"/>
+      <c r="BY8" t="n">
         <v>12</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>12.2</v>
       </c>
       <c r="BZ8" t="n">
         <v>12.2</v>
       </c>
       <c r="CA8" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="CB8" t="n">
         <v>12.1</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>11.9</v>
       </c>
       <c r="CC8" t="n">
         <v>11.9</v>
       </c>
       <c r="CD8" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="CE8" t="n">
         <v>11.8</v>
       </c>
-      <c r="CE8" t="n">
+      <c r="CF8" t="n">
         <v>11.6</v>
       </c>
-      <c r="CF8" t="n">
+      <c r="CG8" t="n">
         <v>11.4</v>
       </c>
-      <c r="CG8" t="n">
+      <c r="CH8" t="n">
         <v>11.5</v>
       </c>
-      <c r="CH8" t="inlineStr"/>
       <c r="CI8" t="inlineStr"/>
-      <c r="CJ8" t="n">
+      <c r="CJ8" t="inlineStr"/>
+      <c r="CK8" t="n">
         <v>12.4</v>
       </c>
-      <c r="CK8" t="n">
+      <c r="CL8" t="n">
         <v>12.5</v>
       </c>
-      <c r="CL8" t="n">
+      <c r="CM8" t="n">
         <v>12.4</v>
       </c>
-      <c r="CM8" t="n">
+      <c r="CN8" t="n">
         <v>12.5</v>
       </c>
-      <c r="CN8" t="n">
+      <c r="CO8" t="n">
         <v>12.8</v>
       </c>
-      <c r="CO8" t="n">
+      <c r="CP8" t="n">
         <v>13.2</v>
       </c>
-      <c r="CP8" t="n">
+      <c r="CQ8" t="n">
         <v>13.4</v>
       </c>
-      <c r="CQ8" t="n">
+      <c r="CR8" t="n">
         <v>13.9</v>
       </c>
-      <c r="CR8" t="n">
+      <c r="CS8" t="n">
         <v>13.2</v>
       </c>
-      <c r="CS8" t="n">
+      <c r="CT8" t="n">
         <v>12.9</v>
       </c>
-      <c r="CT8" t="inlineStr"/>
       <c r="CU8" t="inlineStr"/>
-      <c r="CV8" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="CV8" t="inlineStr"/>
       <c r="CW8" t="n">
         <v>14.8</v>
       </c>
       <c r="CX8" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="CY8" t="n">
         <v>14.6</v>
       </c>
-      <c r="CY8" t="n">
+      <c r="CZ8" t="n">
         <v>14.8</v>
       </c>
-      <c r="CZ8" t="n">
+      <c r="DA8" t="n">
         <v>15.1</v>
       </c>
-      <c r="DA8" t="n">
+      <c r="DB8" t="n">
         <v>15</v>
       </c>
-      <c r="DB8" t="n">
+      <c r="DC8" t="n">
         <v>15.1</v>
       </c>
-      <c r="DC8" t="n">
+      <c r="DD8" t="n">
         <v>14.8</v>
       </c>
-      <c r="DD8" t="n">
+      <c r="DE8" t="n">
         <v>13.8</v>
       </c>
-      <c r="DE8" t="n">
+      <c r="DF8" t="n">
         <v>15</v>
       </c>
-      <c r="DF8" t="inlineStr"/>
       <c r="DG8" t="inlineStr"/>
-      <c r="DH8" t="n">
+      <c r="DH8" t="inlineStr"/>
+      <c r="DI8" t="n">
         <v>15.1</v>
       </c>
-      <c r="DI8" t="n">
+      <c r="DJ8" t="n">
         <v>14.6</v>
       </c>
-      <c r="DJ8" t="n">
+      <c r="DK8" t="n">
         <v>14.8</v>
       </c>
-      <c r="DK8" t="n">
+      <c r="DL8" t="n">
         <v>14.7</v>
       </c>
-      <c r="DL8" t="n">
+      <c r="DM8" t="n">
         <v>14.3</v>
       </c>
-      <c r="DM8" t="n">
+      <c r="DN8" t="n">
         <v>13.6</v>
       </c>
-      <c r="DN8" t="n">
+      <c r="DO8" t="n">
         <v>14</v>
       </c>
-      <c r="DO8" t="n">
+      <c r="DP8" t="n">
         <v>14.3</v>
       </c>
-      <c r="DP8" t="n">
+      <c r="DQ8" t="n">
         <v>14.5</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="DR8" t="n">
         <v>14.6</v>
       </c>
-      <c r="DR8" t="inlineStr"/>
       <c r="DS8" t="inlineStr"/>
-      <c r="DT8" t="n">
+      <c r="DT8" t="inlineStr"/>
+      <c r="DU8" t="n">
         <v>17.8</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="DV8" t="n">
         <v>17.2</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="DW8" t="n">
         <v>17.4</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DX8" t="n">
         <v>17.3</v>
-      </c>
-      <c r="DX8" t="n">
-        <v>16.4</v>
       </c>
       <c r="DY8" t="n">
         <v>16.4</v>
       </c>
       <c r="DZ8" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="EA8" t="n">
         <v>16.8</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EB8" t="n">
         <v>16.5</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EC8" t="n">
         <v>16.3</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="ED8" t="n">
         <v>16.7</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EE8" t="n">
         <v>11.2</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EF8" t="n">
         <v>19.6</v>
-      </c>
-      <c r="EF8" t="n">
-        <v>17</v>
       </c>
       <c r="EG8" t="n">
         <v>17</v>
       </c>
       <c r="EH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="EI8" t="n">
         <v>16.8</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EJ8" t="n">
         <v>17</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EK8" t="n">
         <v>15.9</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EL8" t="n">
         <v>16.1</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EM8" t="n">
         <v>15.9</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EN8" t="n">
         <v>15.8</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EO8" t="n">
         <v>16</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EP8" t="n">
         <v>15.1</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="EQ8" t="n">
         <v>17.6</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="ER8" t="n">
         <v>13.7</v>
       </c>
-      <c r="ER8" t="inlineStr"/>
       <c r="ES8" t="inlineStr"/>
       <c r="ET8" t="inlineStr"/>
       <c r="EU8" t="inlineStr"/>
@@ -7863,6 +7874,7 @@
       <c r="RA8" t="inlineStr"/>
       <c r="RB8" t="inlineStr"/>
       <c r="RC8" t="inlineStr"/>
+      <c r="RD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -7870,81 +7882,79 @@
           <t>Total Retail Sales of Rural Consumer Goods, Accumulated Growth Rate(%)</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
         <v>7.1</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
         <v>12.1</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>13.3</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>14.4</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>15.6</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>17.2</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>19.4</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>21.4</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>23.5</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>26.5</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>29.4</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>26.7</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="n">
         <v>-3.2</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>-4.3</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>-5.4</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-6.7</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>-8.300000000000001</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-9.5</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>-10.9</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-13</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>-15.4</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>-17.7</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>-19</v>
       </c>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="n">
-        <v>9</v>
-      </c>
+      <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="n">
         <v>9</v>
       </c>
@@ -7961,32 +7971,32 @@
         <v>9</v>
       </c>
       <c r="AH9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI9" t="n">
         <v>9.1</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>8.9</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.9</v>
       </c>
       <c r="AK9" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AL9" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AM9" t="n">
         <v>9.1</v>
       </c>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="n">
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>10.1</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
         <v>10.2</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AQ9" t="n">
         <v>10.3</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>10.4</v>
       </c>
       <c r="AR9" t="n">
         <v>10.4</v>
@@ -7995,13 +8005,13 @@
         <v>10.4</v>
       </c>
       <c r="AT9" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="AU9" t="n">
         <v>10.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="AW9" t="n">
         <v>10.7</v>
@@ -8009,44 +8019,44 @@
       <c r="AX9" t="n">
         <v>10.7</v>
       </c>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="n">
+      <c r="AY9" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="n">
         <v>11.8</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BB9" t="n">
         <v>11.9</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BC9" t="n">
         <v>12</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>12.1</v>
       </c>
       <c r="BD9" t="n">
         <v>12.1</v>
       </c>
       <c r="BE9" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="BF9" t="n">
         <v>12.2</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BG9" t="n">
         <v>12.3</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BH9" t="n">
         <v>12.2</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BI9" t="n">
         <v>12.1</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BJ9" t="n">
         <v>11.9</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BK9" t="n">
         <v>11.8</v>
       </c>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="BL9" t="inlineStr"/>
       <c r="BM9" t="n">
         <v>10.9</v>
       </c>
@@ -8063,24 +8073,24 @@
         <v>10.9</v>
       </c>
       <c r="BR9" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="BS9" t="n">
         <v>11</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BT9" t="n">
         <v>10.9</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>11</v>
       </c>
       <c r="BU9" t="n">
         <v>11</v>
       </c>
       <c r="BV9" t="n">
+        <v>11</v>
+      </c>
+      <c r="BW9" t="n">
         <v>10.9</v>
       </c>
-      <c r="BW9" t="inlineStr"/>
-      <c r="BX9" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="BX9" t="inlineStr"/>
       <c r="BY9" t="n">
         <v>11.8</v>
       </c>
@@ -8088,13 +8098,13 @@
         <v>11.8</v>
       </c>
       <c r="CA9" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="CB9" t="n">
         <v>11.7</v>
       </c>
       <c r="CC9" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="CD9" t="n">
         <v>11.6</v>
@@ -8103,54 +8113,54 @@
         <v>11.6</v>
       </c>
       <c r="CF9" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="CG9" t="n">
         <v>11.5</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>11.6</v>
       </c>
       <c r="CH9" t="n">
         <v>11.6</v>
       </c>
-      <c r="CI9" t="inlineStr"/>
-      <c r="CJ9" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="CI9" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="CJ9" t="inlineStr"/>
       <c r="CK9" t="n">
         <v>12.9</v>
       </c>
       <c r="CL9" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="CM9" t="n">
         <v>13</v>
       </c>
       <c r="CN9" t="n">
+        <v>13</v>
+      </c>
+      <c r="CO9" t="n">
         <v>13.1</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>13.2</v>
       </c>
       <c r="CP9" t="n">
         <v>13.2</v>
       </c>
       <c r="CQ9" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="CR9" t="n">
         <v>13.1</v>
       </c>
-      <c r="CR9" t="n">
+      <c r="CS9" t="n">
         <v>12.9</v>
-      </c>
-      <c r="CS9" t="n">
-        <v>12.8</v>
       </c>
       <c r="CT9" t="n">
         <v>12.8</v>
       </c>
-      <c r="CU9" t="inlineStr"/>
-      <c r="CV9" t="n">
+      <c r="CU9" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="CV9" t="inlineStr"/>
+      <c r="CW9" t="n">
         <v>14.6</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>14.5</v>
       </c>
       <c r="CX9" t="n">
         <v>14.5</v>
@@ -8162,29 +8172,29 @@
         <v>14.5</v>
       </c>
       <c r="DA9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="DB9" t="n">
         <v>14.4</v>
       </c>
-      <c r="DB9" t="n">
+      <c r="DC9" t="n">
         <v>14.3</v>
       </c>
-      <c r="DC9" t="n">
+      <c r="DD9" t="n">
         <v>14.1</v>
-      </c>
-      <c r="DD9" t="n">
-        <v>13.9</v>
       </c>
       <c r="DE9" t="n">
         <v>13.9</v>
       </c>
       <c r="DF9" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="DG9" t="n">
         <v>13.4</v>
       </c>
-      <c r="DG9" t="inlineStr"/>
-      <c r="DH9" t="n">
+      <c r="DH9" t="inlineStr"/>
+      <c r="DI9" t="n">
         <v>14.5</v>
-      </c>
-      <c r="DI9" t="n">
-        <v>14.4</v>
       </c>
       <c r="DJ9" t="n">
         <v>14.4</v>
@@ -8193,19 +8203,19 @@
         <v>14.4</v>
       </c>
       <c r="DL9" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="DM9" t="n">
         <v>14.3</v>
       </c>
       <c r="DN9" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="DO9" t="n">
         <v>14.5</v>
       </c>
       <c r="DP9" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="DQ9" t="n">
         <v>14.6</v>
@@ -8213,21 +8223,21 @@
       <c r="DR9" t="n">
         <v>14.6</v>
       </c>
-      <c r="DS9" t="inlineStr"/>
-      <c r="DT9" t="n">
+      <c r="DS9" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="DT9" t="inlineStr"/>
+      <c r="DU9" t="n">
         <v>16.7</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="DV9" t="n">
         <v>16.6</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="DW9" t="n">
         <v>16.5</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="DX9" t="n">
         <v>16.4</v>
-      </c>
-      <c r="DX9" t="n">
-        <v>16.2</v>
       </c>
       <c r="DY9" t="n">
         <v>16.2</v>
@@ -8236,37 +8246,37 @@
         <v>16.2</v>
       </c>
       <c r="EA9" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="EB9" t="n">
         <v>16</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="EC9" t="n">
         <v>15.9</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="ED9" t="n">
         <v>15.8</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EE9" t="n">
         <v>15.4</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EF9" t="n">
         <v>19.6</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EG9" t="n">
         <v>16.1</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EH9" t="n">
         <v>16</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EI9" t="n">
         <v>15.9</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EJ9" t="n">
         <v>15.8</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EK9" t="n">
         <v>15.7</v>
-      </c>
-      <c r="EK9" t="n">
-        <v>15.6</v>
       </c>
       <c r="EL9" t="n">
         <v>15.6</v>
@@ -8275,18 +8285,20 @@
         <v>15.6</v>
       </c>
       <c r="EN9" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="EO9" t="n">
         <v>15.5</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EP9" t="n">
         <v>15.4</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="EQ9" t="n">
         <v>15.5</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="ER9" t="n">
         <v>13.7</v>
       </c>
-      <c r="ER9" t="inlineStr"/>
       <c r="ES9" t="inlineStr"/>
       <c r="ET9" t="inlineStr"/>
       <c r="EU9" t="inlineStr"/>
@@ -8610,6 +8622,7 @@
       <c r="RA9" t="inlineStr"/>
       <c r="RB9" t="inlineStr"/>
       <c r="RC9" t="inlineStr"/>
+      <c r="RD9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
